--- a/zF.xlsx
+++ b/zF.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="325">
   <si>
     <t>Column</t>
   </si>
@@ -23,7 +23,13 @@
     <t>Tree.ID</t>
   </si>
   <si>
+    <t>Anth</t>
+  </si>
+  <si>
     <t>Flav</t>
+  </si>
+  <si>
+    <t>Chl</t>
   </si>
   <si>
     <t>NBI</t>
@@ -1048,3185 +1054,4145 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
         <v>1.0</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E2" t="n">
-        <v>2.1668076923076924</v>
+        <v>0.012956617084290037</v>
       </c>
       <c r="F2" t="n">
-        <v>16.217307692307692</v>
+        <v>0.20144859821636488</v>
+      </c>
+      <c r="G2" t="n">
+        <v>34.82596296296296</v>
+      </c>
+      <c r="H2" t="n">
+        <v>34.82596296296296</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
         <v>1.0</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E3" t="n">
-        <v>1.967818181818182</v>
+        <v>0.005155691158364155</v>
       </c>
       <c r="F3" t="n">
-        <v>14.086363636363636</v>
+        <v>-0.01400047585770888</v>
+      </c>
+      <c r="G3" t="n">
+        <v>25.39475</v>
+      </c>
+      <c r="H3" t="n">
+        <v>25.39475</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
         <v>1.0</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E4" t="n">
-        <v>1.9849999999999999</v>
+        <v>0.010784394862067856</v>
       </c>
       <c r="F4" t="n">
-        <v>13.495555555555555</v>
+        <v>0.024027301920068966</v>
+      </c>
+      <c r="G4" t="n">
+        <v>25.506498148148147</v>
+      </c>
+      <c r="H4" t="n">
+        <v>25.506498148148147</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" t="n">
         <v>1.0</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E5" t="n">
-        <v>1.7944545454545455</v>
+        <v>0.019405691158364154</v>
       </c>
       <c r="F5" t="n">
-        <v>17.457272727272727</v>
+        <v>-0.16625047585770894</v>
+      </c>
+      <c r="G5" t="n">
+        <v>32.68805555555556</v>
+      </c>
+      <c r="H5" t="n">
+        <v>32.68805555555556</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" t="n">
         <v>1.0</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E6" t="n">
-        <v>1.7129</v>
+        <v>0.05218346893614194</v>
       </c>
       <c r="F6" t="n">
-        <v>19.119</v>
+        <v>-0.33444492030215334</v>
+      </c>
+      <c r="G6" t="n">
+        <v>30.977249999999998</v>
+      </c>
+      <c r="H6" t="n">
+        <v>30.977249999999998</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" t="n">
         <v>1.0</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E7" t="n">
-        <v>2.0605454545454545</v>
+        <v>0.00982235782503082</v>
       </c>
       <c r="F7" t="n">
-        <v>14.075454545454546</v>
+        <v>0.09374952414229105</v>
+      </c>
+      <c r="G7" t="n">
+        <v>29.192777777777778</v>
+      </c>
+      <c r="H7" t="n">
+        <v>29.192777777777778</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8" t="n">
         <v>1.0</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E8" t="n">
-        <v>2.02</v>
+        <v>-0.00837208661941362</v>
       </c>
       <c r="F8" t="n">
-        <v>18.356363636363636</v>
+        <v>0.04886063525340223</v>
+      </c>
+      <c r="G8" t="n">
+        <v>36.940222222222225</v>
+      </c>
+      <c r="H8" t="n">
+        <v>36.940222222222225</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9" t="n">
         <v>1.0</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E9" t="n">
-        <v>2.128625</v>
+        <v>0.001239024491697489</v>
       </c>
       <c r="F9" t="n">
-        <v>16.6075</v>
+        <v>0.16274952414229102</v>
+      </c>
+      <c r="G9" t="n">
+        <v>35.88144444444444</v>
+      </c>
+      <c r="H9" t="n">
+        <v>35.88144444444444</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10" t="n">
         <v>1.0</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E10" t="n">
-        <v>2.0745454545454547</v>
+        <v>-0.00920541995274695</v>
       </c>
       <c r="F10" t="n">
-        <v>15.361818181818181</v>
+        <v>0.11188841303118006</v>
+      </c>
+      <c r="G10" t="n">
+        <v>31.134666666666668</v>
+      </c>
+      <c r="H10" t="n">
+        <v>31.134666666666668</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11" t="n">
         <v>1.0</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E11" t="n">
-        <v>2.0155454545454545</v>
+        <v>-0.007066531063858059</v>
       </c>
       <c r="F11" t="n">
-        <v>20.583636363636366</v>
+        <v>0.03866619080895769</v>
+      </c>
+      <c r="G11" t="n">
+        <v>38.04322222222222</v>
+      </c>
+      <c r="H11" t="n">
+        <v>38.04322222222222</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12" t="n">
         <v>1.0</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E12" t="n">
-        <v>2.0124545454545455</v>
+        <v>0.021544580047253046</v>
       </c>
       <c r="F12" t="n">
-        <v>13.82090909090909</v>
+        <v>0.04341619080895779</v>
+      </c>
+      <c r="G12" t="n">
+        <v>27.524333333333335</v>
+      </c>
+      <c r="H12" t="n">
+        <v>27.524333333333335</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13" t="n">
         <v>1.0</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E13" t="n">
-        <v>2.118</v>
+        <v>0.013377913380586378</v>
       </c>
       <c r="F13" t="n">
-        <v>16.546363636363637</v>
+        <v>0.14427730192006902</v>
+      </c>
+      <c r="G13" t="n">
+        <v>34.02413888888889</v>
+      </c>
+      <c r="H13" t="n">
+        <v>34.02413888888889</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14" t="n">
         <v>1.0</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E14" t="n">
-        <v>1.8900000000000001</v>
+        <v>-0.015666531063858066</v>
       </c>
       <c r="F14" t="n">
-        <v>20.855333333333334</v>
+        <v>-0.06266714252437551</v>
+      </c>
+      <c r="G14" t="n">
+        <v>37.48866666666667</v>
+      </c>
+      <c r="H14" t="n">
+        <v>37.48866666666667</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15" t="n">
         <v>1.0</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E15" t="n">
-        <v>1.9227272727272728</v>
+        <v>-0.010594308841635843</v>
       </c>
       <c r="F15" t="n">
-        <v>19.694545454545455</v>
+        <v>-0.03641714252437548</v>
+      </c>
+      <c r="G15" t="n">
+        <v>36.02305555555556</v>
+      </c>
+      <c r="H15" t="n">
+        <v>36.02305555555556</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16" t="n">
         <v>1.0</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E16" t="n">
-        <v>2.3379000000000003</v>
+        <v>-0.015344308841635844</v>
       </c>
       <c r="F16" t="n">
-        <v>13.856</v>
+        <v>0.37683285747562456</v>
+      </c>
+      <c r="G16" t="n">
+        <v>31.879833333333337</v>
+      </c>
+      <c r="H16" t="n">
+        <v>31.879833333333337</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17" t="n">
         <v>1.0</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E17" t="n">
-        <v>2.0246666666666666</v>
+        <v>0.0021501356028086013</v>
       </c>
       <c r="F17" t="n">
-        <v>19.485833333333332</v>
+        <v>0.056338413031179924</v>
+      </c>
+      <c r="G17" t="n">
+        <v>36.59326111111111</v>
+      </c>
+      <c r="H17" t="n">
+        <v>36.59326111111111</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E18" t="n">
-        <v>2.0248181818181816</v>
+        <v>-0.017122086619413623</v>
       </c>
       <c r="F18" t="n">
-        <v>14.902727272727272</v>
+        <v>0.05638841303118003</v>
+      </c>
+      <c r="G18" t="n">
+        <v>29.02888888888889</v>
+      </c>
+      <c r="H18" t="n">
+        <v>29.02888888888889</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E19" t="n">
-        <v>2.1553</v>
+        <v>9.334689361419393E-4</v>
       </c>
       <c r="F19" t="n">
-        <v>12.991999999999999</v>
+        <v>0.17772174636451332</v>
+      </c>
+      <c r="G19" t="n">
+        <v>28.799166666666665</v>
+      </c>
+      <c r="H19" t="n">
+        <v>28.799166666666665</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20" t="n">
         <v>1.0</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E20" t="n">
-        <v>2.071090909090909</v>
+        <v>-0.017288753286080292</v>
       </c>
       <c r="F20" t="n">
-        <v>15.655454545454546</v>
+        <v>0.10530507969784668</v>
+      </c>
+      <c r="G20" t="n">
+        <v>32.10352777777778</v>
+      </c>
+      <c r="H20" t="n">
+        <v>32.10352777777778</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21" t="n">
         <v>1.0</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E21" t="n">
-        <v>1.8286363636363636</v>
+        <v>-0.04878875328608028</v>
       </c>
       <c r="F21" t="n">
-        <v>21.56</v>
+        <v>-0.14400047585770892</v>
+      </c>
+      <c r="G21" t="n">
+        <v>38.758805555555554</v>
+      </c>
+      <c r="H21" t="n">
+        <v>38.758805555555554</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22" t="n">
         <v>1.0</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E22" t="n">
-        <v>2.0364</v>
+        <v>-0.02717764217496918</v>
       </c>
       <c r="F22" t="n">
-        <v>13.246</v>
+        <v>0.09344396858673565</v>
+      </c>
+      <c r="G22" t="n">
+        <v>27.02472222222222</v>
+      </c>
+      <c r="H22" t="n">
+        <v>27.02472222222222</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23" t="n">
         <v>1.0</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E23" t="n">
-        <v>1.9941818181818183</v>
+        <v>0.029183468936141935</v>
       </c>
       <c r="F23" t="n">
-        <v>12.461818181818181</v>
+        <v>0.03722174636451333</v>
+      </c>
+      <c r="G23" t="n">
+        <v>24.285305555555556</v>
+      </c>
+      <c r="H23" t="n">
+        <v>24.285305555555556</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24" t="n">
         <v>1.0</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E24" t="n">
-        <v>1.9736</v>
+        <v>0.007072357825030823</v>
       </c>
       <c r="F24" t="n">
-        <v>16.686</v>
+        <v>0.012499524142291088</v>
+      </c>
+      <c r="G24" t="n">
+        <v>31.27302777777778</v>
+      </c>
+      <c r="H24" t="n">
+        <v>31.27302777777778</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25" t="n">
         <v>1.0</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E25" t="n">
-        <v>2.0783809523809524</v>
+        <v>-0.007278832651159653</v>
       </c>
       <c r="F25" t="n">
-        <v>13.354761904761904</v>
+        <v>0.12816619080895775</v>
+      </c>
+      <c r="G25" t="n">
+        <v>26.615152777777777</v>
+      </c>
+      <c r="H25" t="n">
+        <v>26.615152777777777</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26" t="n">
         <v>1.0</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E26" t="n">
-        <v>2.0417272727272726</v>
+        <v>-0.02073319773052473</v>
       </c>
       <c r="F26" t="n">
-        <v>19.951818181818183</v>
+        <v>0.07149952414229117</v>
+      </c>
+      <c r="G26" t="n">
+        <v>40.528222222222226</v>
+      </c>
+      <c r="H26" t="n">
+        <v>40.528222222222226</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27" t="n">
         <v>1.0</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E27" t="n">
-        <v>2.0222727272727274</v>
+        <v>-0.024594308841635843</v>
       </c>
       <c r="F27" t="n">
-        <v>14.040909090909091</v>
+        <v>0.037277301920068874</v>
+      </c>
+      <c r="G27" t="n">
+        <v>28.110277777777778</v>
+      </c>
+      <c r="H27" t="n">
+        <v>28.110277777777778</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28" t="n">
         <v>1.0</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E28" t="n">
-        <v>1.8975454545454544</v>
+        <v>0.009961246713919717</v>
       </c>
       <c r="F28" t="n">
-        <v>17.28909090909091</v>
+        <v>-0.09238936474659772</v>
+      </c>
+      <c r="G28" t="n">
+        <v>31.91386111111111</v>
+      </c>
+      <c r="H28" t="n">
+        <v>31.91386111111111</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29" t="n">
         <v>1.0</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E29" t="n">
-        <v>2.0301666666666667</v>
+        <v>-0.002899864397191393</v>
       </c>
       <c r="F29" t="n">
-        <v>17.29083333333333</v>
+        <v>0.06763841303118001</v>
+      </c>
+      <c r="G29" t="n">
+        <v>34.49041666666667</v>
+      </c>
+      <c r="H29" t="n">
+        <v>34.49041666666667</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30" t="n">
         <v>1.0</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D30" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E30" t="n">
-        <v>1.9807000000000001</v>
+        <v>-0.019510975508302504</v>
       </c>
       <c r="F30" t="n">
-        <v>22.728</v>
+        <v>0.005360635253402283</v>
+      </c>
+      <c r="G30" t="n">
+        <v>44.922916666666666</v>
+      </c>
+      <c r="H30" t="n">
+        <v>44.922916666666666</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31" t="n">
         <v>1.0</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D31" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E31" t="n">
-        <v>2.0181999999999998</v>
+        <v>0.0053501356028086006</v>
       </c>
       <c r="F31" t="n">
-        <v>16.198</v>
+        <v>0.04805507969784658</v>
+      </c>
+      <c r="G31" t="n">
+        <v>31.864722222222223</v>
+      </c>
+      <c r="H31" t="n">
+        <v>31.864722222222223</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32" t="n">
         <v>1.0</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D32" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E32" t="n">
-        <v>2.0205</v>
+        <v>-0.017066531063858064</v>
       </c>
       <c r="F32" t="n">
-        <v>14.164</v>
+        <v>0.03880507969784667</v>
+      </c>
+      <c r="G32" t="n">
+        <v>30.04283333333333</v>
+      </c>
+      <c r="H32" t="n">
+        <v>30.04283333333333</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33" t="n">
         <v>1.0</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D33" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E33" t="n">
-        <v>1.9630909090909092</v>
+        <v>-0.003233197730524736</v>
       </c>
       <c r="F33" t="n">
-        <v>19.44</v>
+        <v>-7.782536354865588E-4</v>
+      </c>
+      <c r="G33" t="n">
+        <v>37.48605555555556</v>
+      </c>
+      <c r="H33" t="n">
+        <v>37.48605555555556</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34" t="n">
         <v>1.0</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E34" t="n">
-        <v>2.0537272727272726</v>
+        <v>-0.005983197730524738</v>
       </c>
       <c r="F34" t="n">
-        <v>18.367272727272727</v>
+        <v>0.09399952414229107</v>
+      </c>
+      <c r="G34" t="n">
+        <v>37.25825</v>
+      </c>
+      <c r="H34" t="n">
+        <v>37.25825</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35" t="n">
         <v>1.0</v>
       </c>
       <c r="C35" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D35" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E35" t="n">
-        <v>1.926</v>
+        <v>-0.021205419952746954</v>
       </c>
       <c r="F35" t="n">
-        <v>17.51181818181818</v>
+        <v>-0.0453060314132645</v>
+      </c>
+      <c r="G35" t="n">
+        <v>32.009</v>
+      </c>
+      <c r="H35" t="n">
+        <v>32.009</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36" t="n">
         <v>1.0</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D36" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E36" t="n">
-        <v>1.959529411764706</v>
+        <v>-0.013189546936873941</v>
       </c>
       <c r="F36" t="n">
-        <v>18.948235294117648</v>
+        <v>-0.012452856810089822</v>
+      </c>
+      <c r="G36" t="n">
+        <v>37.81754761904762</v>
+      </c>
+      <c r="H36" t="n">
+        <v>37.81754761904762</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37" t="n">
         <v>1.0</v>
       </c>
       <c r="C37" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D37" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E37" t="n">
-        <v>1.9716363636363636</v>
+        <v>-0.013449864397191397</v>
       </c>
       <c r="F37" t="n">
-        <v>20.705454545454547</v>
+        <v>0.0016939685867355763</v>
+      </c>
+      <c r="G37" t="n">
+        <v>38.16271111111111</v>
+      </c>
+      <c r="H37" t="n">
+        <v>38.16271111111111</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38" t="n">
         <v>1.0</v>
       </c>
       <c r="C38" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D38" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E38" t="n">
-        <v>2.1882727272727274</v>
+        <v>0.006100135602808606</v>
       </c>
       <c r="F38" t="n">
-        <v>14.85909090909091</v>
+        <v>0.22511063525340225</v>
+      </c>
+      <c r="G38" t="n">
+        <v>31.75025</v>
+      </c>
+      <c r="H38" t="n">
+        <v>31.75025</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39" t="n">
         <v>1.0</v>
       </c>
       <c r="C39" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D39" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E39" t="n">
-        <v>1.7802</v>
+        <v>-0.029066531063858068</v>
       </c>
       <c r="F39" t="n">
-        <v>27.529</v>
+        <v>-0.15127825363548672</v>
+      </c>
+      <c r="G39" t="n">
+        <v>48.03633333333334</v>
+      </c>
+      <c r="H39" t="n">
+        <v>48.03633333333334</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40" t="n">
         <v>1.0</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D40" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E40" t="n">
-        <v>2.045818181818182</v>
+        <v>0.016850135602808597</v>
       </c>
       <c r="F40" t="n">
-        <v>17.168181818181818</v>
+        <v>0.07833285747562442</v>
+      </c>
+      <c r="G40" t="n">
+        <v>34.408027777777775</v>
+      </c>
+      <c r="H40" t="n">
+        <v>34.408027777777775</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41" t="n">
         <v>1.0</v>
       </c>
       <c r="C41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D41" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E41" t="n">
-        <v>2.0279</v>
+        <v>-0.01289430884163584</v>
       </c>
       <c r="F41" t="n">
-        <v>21.288</v>
+        <v>0.07751619080895782</v>
+      </c>
+      <c r="G41" t="n">
+        <v>39.00534444444445</v>
+      </c>
+      <c r="H41" t="n">
+        <v>39.00534444444445</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42" t="n">
         <v>1.0</v>
       </c>
       <c r="C42" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D42" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E42" t="n">
-        <v>1.9021818181818182</v>
+        <v>-0.011149864397191395</v>
       </c>
       <c r="F42" t="n">
-        <v>19.10272727272727</v>
+        <v>-0.05266714252437558</v>
+      </c>
+      <c r="G42" t="n">
+        <v>35.192</v>
+      </c>
+      <c r="H42" t="n">
+        <v>35.192</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43" t="n">
         <v>1.0</v>
       </c>
       <c r="C43" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D43" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E43" t="n">
-        <v>1.8142727272727273</v>
+        <v>-0.017844308841635837</v>
       </c>
       <c r="F43" t="n">
-        <v>23.846363636363638</v>
+        <v>-0.14600047585770892</v>
+      </c>
+      <c r="G43" t="n">
+        <v>42.74088888888889</v>
+      </c>
+      <c r="H43" t="n">
+        <v>42.74088888888889</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44" t="n">
         <v>1.0</v>
       </c>
       <c r="C44" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D44" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E44" t="n">
-        <v>2.1977272727272728</v>
+        <v>-0.009816531063858061</v>
       </c>
       <c r="F44" t="n">
-        <v>19.77090909090909</v>
+        <v>0.22474952414229113</v>
+      </c>
+      <c r="G44" t="n">
+        <v>42.972944444444444</v>
+      </c>
+      <c r="H44" t="n">
+        <v>42.972944444444444</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45" t="n">
         <v>1.0</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E45" t="n">
-        <v>1.9779</v>
+        <v>0.008989024491697485</v>
       </c>
       <c r="F45" t="n">
-        <v>12.452</v>
+        <v>0.009193968586735638</v>
+      </c>
+      <c r="G45" t="n">
+        <v>25.270166666666668</v>
+      </c>
+      <c r="H45" t="n">
+        <v>25.270166666666668</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46" t="n">
         <v>1.0</v>
       </c>
       <c r="C46" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D46" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E46" t="n">
-        <v>1.9798</v>
+        <v>-0.02842129296861997</v>
       </c>
       <c r="F46" t="n">
-        <v>19.8952</v>
+        <v>0.019931270174037213</v>
+      </c>
+      <c r="G46" t="n">
+        <v>39.77140238095238</v>
+      </c>
+      <c r="H46" t="n">
+        <v>39.77140238095238</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47" t="n">
         <v>1.0</v>
       </c>
       <c r="C47" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E47" t="n">
-        <v>2.0874545454545452</v>
+        <v>0.006405691158364156</v>
       </c>
       <c r="F47" t="n">
-        <v>15.572727272727272</v>
+        <v>0.12638841303118</v>
+      </c>
+      <c r="G47" t="n">
+        <v>32.586416666666665</v>
+      </c>
+      <c r="H47" t="n">
+        <v>32.586416666666665</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48" t="n">
         <v>1.0</v>
       </c>
       <c r="C48" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E48" t="n">
-        <v>2.038</v>
+        <v>0.04421124671391972</v>
       </c>
       <c r="F48" t="n">
-        <v>13.435454545454546</v>
+        <v>0.04830507969784666</v>
+      </c>
+      <c r="G48" t="n">
+        <v>26.461555555555556</v>
+      </c>
+      <c r="H48" t="n">
+        <v>26.461555555555556</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49" t="n">
         <v>1.0</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E49" t="n">
-        <v>2.037181818181818</v>
+        <v>0.019989024491697493</v>
       </c>
       <c r="F49" t="n">
-        <v>15.139090909090909</v>
+        <v>0.0785828574756245</v>
+      </c>
+      <c r="G49" t="n">
+        <v>30.772972222222222</v>
+      </c>
+      <c r="H49" t="n">
+        <v>30.772972222222222</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50" t="n">
         <v>1.0</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D50" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E50" t="n">
-        <v>2.0422727272727275</v>
+        <v>-0.010594308841635841</v>
       </c>
       <c r="F50" t="n">
-        <v>21.23</v>
+        <v>0.07961063525340228</v>
+      </c>
+      <c r="G50" t="n">
+        <v>42.80522222222222</v>
+      </c>
+      <c r="H50" t="n">
+        <v>42.80522222222222</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51" t="n">
         <v>2.0</v>
       </c>
       <c r="C51" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E51" t="n">
-        <v>2.081818181818182</v>
+        <v>5.168022694752167E-4</v>
       </c>
       <c r="F51" t="n">
-        <v>19.94090909090909</v>
+        <v>0.11274952414229096</v>
+      </c>
+      <c r="G51" t="n">
+        <v>40.97688888888889</v>
+      </c>
+      <c r="H51" t="n">
+        <v>40.97688888888889</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52" t="n">
         <v>2.0</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D52" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E52" t="n">
-        <v>1.9907</v>
+        <v>0.01193346893614193</v>
       </c>
       <c r="F52" t="n">
-        <v>14.649000000000001</v>
+        <v>0.025693968586735522</v>
+      </c>
+      <c r="G52" t="n">
+        <v>28.067833333333333</v>
+      </c>
+      <c r="H52" t="n">
+        <v>28.067833333333333</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53" t="n">
         <v>2.0</v>
       </c>
       <c r="C53" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D53" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E53" t="n">
-        <v>2.116</v>
+        <v>0.005433468936141929</v>
       </c>
       <c r="F53" t="n">
-        <v>16.095454545454544</v>
+        <v>0.15133285747562444</v>
+      </c>
+      <c r="G53" t="n">
+        <v>32.98108333333333</v>
+      </c>
+      <c r="H53" t="n">
+        <v>32.98108333333333</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54" t="n">
         <v>2.0</v>
       </c>
       <c r="C54" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D54" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E54" t="n">
-        <v>1.9011818181818183</v>
+        <v>-0.0023165310638580635</v>
       </c>
       <c r="F54" t="n">
-        <v>20.333636363636366</v>
+        <v>-0.058278253635486665</v>
+      </c>
+      <c r="G54" t="n">
+        <v>38.14538888888889</v>
+      </c>
+      <c r="H54" t="n">
+        <v>38.14538888888889</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55" t="n">
         <v>2.0</v>
       </c>
       <c r="C55" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D55" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E55" t="n">
-        <v>1.9088181818181817</v>
+        <v>-1.2208661941362034E-4</v>
       </c>
       <c r="F55" t="n">
-        <v>16.80909090909091</v>
+        <v>-0.07163936474659775</v>
+      </c>
+      <c r="G55" t="n">
+        <v>31.779083333333332</v>
+      </c>
+      <c r="H55" t="n">
+        <v>31.779083333333332</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56" t="n">
         <v>2.0</v>
       </c>
       <c r="C56" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D56" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E56" t="n">
-        <v>2.0136363636363637</v>
+        <v>-0.014566531063858065</v>
       </c>
       <c r="F56" t="n">
-        <v>18.613636363636363</v>
+        <v>0.04358285747562444</v>
+      </c>
+      <c r="G56" t="n">
+        <v>37.251527777777774</v>
+      </c>
+      <c r="H56" t="n">
+        <v>37.251527777777774</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57" t="n">
         <v>2.0</v>
       </c>
       <c r="C57" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D57" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E57" t="n">
-        <v>2.020090909090909</v>
+        <v>-0.013760975508302511</v>
       </c>
       <c r="F57" t="n">
-        <v>18.724545454545453</v>
+        <v>0.05155507969784656</v>
+      </c>
+      <c r="G57" t="n">
+        <v>37.803916666666666</v>
+      </c>
+      <c r="H57" t="n">
+        <v>37.803916666666666</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58" t="n">
         <v>2.0</v>
       </c>
       <c r="C58" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D58" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E58" t="n">
-        <v>1.9466363636363635</v>
+        <v>-0.010899864397191395</v>
       </c>
       <c r="F58" t="n">
-        <v>14.127272727272727</v>
+        <v>-0.0295560314132645</v>
+      </c>
+      <c r="G58" t="n">
+        <v>26.877166666666668</v>
+      </c>
+      <c r="H58" t="n">
+        <v>26.877166666666668</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59" t="n">
         <v>2.0</v>
       </c>
       <c r="C59" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D59" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E59" t="n">
-        <v>1.8411818181818183</v>
+        <v>-0.012538753286080284</v>
       </c>
       <c r="F59" t="n">
-        <v>15.806363636363637</v>
+        <v>-0.12219492030215336</v>
+      </c>
+      <c r="G59" t="n">
+        <v>29.03338888888889</v>
+      </c>
+      <c r="H59" t="n">
+        <v>29.03338888888889</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60" t="n">
         <v>2.0</v>
       </c>
       <c r="C60" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D60" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E60" t="n">
-        <v>1.776909090909091</v>
+        <v>-0.009066531063858066</v>
       </c>
       <c r="F60" t="n">
-        <v>21.426363636363636</v>
+        <v>-0.18311158696882002</v>
+      </c>
+      <c r="G60" t="n">
+        <v>35.27569444444445</v>
+      </c>
+      <c r="H60" t="n">
+        <v>35.27569444444445</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61" t="n">
         <v>2.0</v>
       </c>
       <c r="C61" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D61" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E61" t="n">
-        <v>1.8698181818181818</v>
+        <v>8.501356028085966E-4</v>
       </c>
       <c r="F61" t="n">
-        <v>21.651818181818182</v>
+        <v>-0.09744492030215324</v>
+      </c>
+      <c r="G61" t="n">
+        <v>38.243805555555554</v>
+      </c>
+      <c r="H61" t="n">
+        <v>38.243805555555554</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62" t="n">
         <v>2.0</v>
       </c>
       <c r="C62" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D62" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E62" t="n">
-        <v>2.0127272727272727</v>
+        <v>0.007266802269475269</v>
       </c>
       <c r="F62" t="n">
-        <v>18.13</v>
+        <v>0.048138413031180015</v>
+      </c>
+      <c r="G62" t="n">
+        <v>35.19544444444445</v>
+      </c>
+      <c r="H62" t="n">
+        <v>35.19544444444445</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63" t="n">
         <v>2.0</v>
       </c>
       <c r="C63" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D63" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E63" t="n">
-        <v>1.8172272727272727</v>
+        <v>0.014572357825030824</v>
       </c>
       <c r="F63" t="n">
-        <v>16.681818181818183</v>
+        <v>-0.1524865869688199</v>
+      </c>
+      <c r="G63" t="n">
+        <v>29.81640277777778</v>
+      </c>
+      <c r="H63" t="n">
+        <v>29.81640277777778</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64" t="n">
         <v>2.0</v>
       </c>
       <c r="C64" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D64" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E64" t="n">
-        <v>1.9694545454545453</v>
+        <v>-0.003844308841635844</v>
       </c>
       <c r="F64" t="n">
-        <v>18.804545454545455</v>
+        <v>-0.008556031413264368</v>
+      </c>
+      <c r="G64" t="n">
+        <v>36.377250000000004</v>
+      </c>
+      <c r="H64" t="n">
+        <v>36.377250000000004</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65" t="n">
         <v>2.0</v>
       </c>
       <c r="C65" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D65" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E65" t="n">
-        <v>1.7581818181818183</v>
+        <v>-0.014122086619413624</v>
       </c>
       <c r="F65" t="n">
-        <v>23.5</v>
+        <v>-0.2005560314132644</v>
+      </c>
+      <c r="G65" t="n">
+        <v>40.78977777777778</v>
+      </c>
+      <c r="H65" t="n">
+        <v>40.78977777777778</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66" t="n">
         <v>2.0</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D66" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E66" t="n">
-        <v>1.9040000000000001</v>
+        <v>0.006516802269475268</v>
       </c>
       <c r="F66" t="n">
-        <v>17.78727272727273</v>
+        <v>-0.06750047585770891</v>
+      </c>
+      <c r="G66" t="n">
+        <v>31.70588888888889</v>
+      </c>
+      <c r="H66" t="n">
+        <v>31.70588888888889</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67" t="n">
         <v>2.0</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D67" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E67" t="n">
-        <v>1.7184</v>
+        <v>-0.0014831977305247341</v>
       </c>
       <c r="F67" t="n">
-        <v>22.874</v>
+        <v>-0.19194492030215327</v>
+      </c>
+      <c r="G67" t="n">
+        <v>38.00516666666667</v>
+      </c>
+      <c r="H67" t="n">
+        <v>38.00516666666667</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68" t="n">
         <v>2.0</v>
       </c>
       <c r="C68" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D68" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E68" t="n">
-        <v>1.9052727272727272</v>
+        <v>-0.005149864397191395</v>
       </c>
       <c r="F68" t="n">
-        <v>16.12090909090909</v>
+        <v>-0.05880603141326435</v>
+      </c>
+      <c r="G68" t="n">
+        <v>30.423833333333334</v>
+      </c>
+      <c r="H68" t="n">
+        <v>30.423833333333334</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69" t="n">
         <v>2.0</v>
       </c>
       <c r="C69" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D69" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E69" t="n">
-        <v>1.7934</v>
+        <v>-0.01506653106385806</v>
       </c>
       <c r="F69" t="n">
-        <v>21.52</v>
+        <v>-0.17211158696881998</v>
+      </c>
+      <c r="G69" t="n">
+        <v>34.139833333333335</v>
+      </c>
+      <c r="H69" t="n">
+        <v>34.139833333333335</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70" t="n">
         <v>2.0</v>
       </c>
       <c r="C70" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D70" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E70" t="n">
-        <v>1.8195454545454546</v>
+        <v>-0.0031220866194136185</v>
       </c>
       <c r="F70" t="n">
-        <v>21.087272727272726</v>
+        <v>-0.14441714252437557</v>
+      </c>
+      <c r="G70" t="n">
+        <v>37.793305555555555</v>
+      </c>
+      <c r="H70" t="n">
+        <v>37.793305555555555</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71" t="n">
         <v>2.0</v>
       </c>
       <c r="C71" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D71" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E71" t="n">
-        <v>1.978</v>
+        <v>0.0031279133805863827</v>
       </c>
       <c r="F71" t="n">
-        <v>21.347272727272728</v>
+        <v>0.008082857475624502</v>
+      </c>
+      <c r="G71" t="n">
+        <v>41.88052777777778</v>
+      </c>
+      <c r="H71" t="n">
+        <v>41.88052777777778</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72" t="n">
         <v>2.0</v>
       </c>
       <c r="C72" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D72" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E72" t="n">
-        <v>1.9774166666666666</v>
+        <v>-0.0012331977305247294</v>
       </c>
       <c r="F72" t="n">
-        <v>18.8025</v>
+        <v>0.014888413031180011</v>
+      </c>
+      <c r="G72" t="n">
+        <v>35.778083333333335</v>
+      </c>
+      <c r="H72" t="n">
+        <v>35.778083333333335</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73" t="n">
         <v>2.0</v>
       </c>
       <c r="C73" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E73" t="n">
-        <v>2.133</v>
+        <v>0.05448902449169749</v>
       </c>
       <c r="F73" t="n">
-        <v>11.924545454545454</v>
+        <v>0.14322174636451335</v>
+      </c>
+      <c r="G73" t="n">
+        <v>25.35286111111111</v>
+      </c>
+      <c r="H73" t="n">
+        <v>25.35286111111111</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74" t="n">
         <v>2.0</v>
       </c>
       <c r="C74" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D74" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E74" t="n">
-        <v>2.011888888888889</v>
+        <v>-0.00953875328608029</v>
       </c>
       <c r="F74" t="n">
-        <v>18.584444444444443</v>
+        <v>0.04936063525340232</v>
+      </c>
+      <c r="G74" t="n">
+        <v>37.080777777777776</v>
+      </c>
+      <c r="H74" t="n">
+        <v>37.080777777777776</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75" t="n">
         <v>2.0</v>
       </c>
       <c r="C75" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D75" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E75" t="n">
-        <v>1.985</v>
+        <v>-0.008066531063858065</v>
       </c>
       <c r="F75" t="n">
-        <v>20.027272727272727</v>
+        <v>0.028305079697846718</v>
+      </c>
+      <c r="G75" t="n">
+        <v>39.65222222222222</v>
+      </c>
+      <c r="H75" t="n">
+        <v>39.65222222222222</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76" t="n">
         <v>2.0</v>
       </c>
       <c r="C76" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D76" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E76" t="n">
-        <v>2.0992727272727274</v>
+        <v>0.00801680226947527</v>
       </c>
       <c r="F76" t="n">
-        <v>17.951818181818183</v>
+        <v>0.12686063525340222</v>
+      </c>
+      <c r="G76" t="n">
+        <v>37.44083333333333</v>
+      </c>
+      <c r="H76" t="n">
+        <v>37.44083333333333</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77" t="n">
         <v>2.0</v>
       </c>
       <c r="C77" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D77" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E77" t="n">
-        <v>1.8904545454545456</v>
+        <v>0.01137791338058638</v>
       </c>
       <c r="F77" t="n">
-        <v>22.624545454545455</v>
+        <v>-0.07138936474659767</v>
+      </c>
+      <c r="G77" t="n">
+        <v>40.683083333333336</v>
+      </c>
+      <c r="H77" t="n">
+        <v>40.683083333333336</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78" t="n">
         <v>2.0</v>
       </c>
       <c r="C78" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D78" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E78" t="n">
-        <v>1.950909090909091</v>
+        <v>0.01040569115836415</v>
       </c>
       <c r="F78" t="n">
-        <v>21.984545454545454</v>
+        <v>-0.02038936474659773</v>
+      </c>
+      <c r="G78" t="n">
+        <v>42.13313888888889</v>
+      </c>
+      <c r="H78" t="n">
+        <v>42.13313888888889</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79" t="n">
         <v>2.0</v>
       </c>
       <c r="C79" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D79" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E79" t="n">
-        <v>1.993090909090909</v>
+        <v>0.004683468936141934</v>
       </c>
       <c r="F79" t="n">
-        <v>18.23818181818182</v>
+        <v>0.02549952414229099</v>
+      </c>
+      <c r="G79" t="n">
+        <v>35.08361111111111</v>
+      </c>
+      <c r="H79" t="n">
+        <v>35.08361111111111</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80" t="n">
         <v>2.0</v>
       </c>
       <c r="C80" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D80" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E80" t="n">
-        <v>2.042818181818182</v>
+        <v>-0.012427642174969175</v>
       </c>
       <c r="F80" t="n">
-        <v>22.50090909090909</v>
+        <v>0.0782217463645134</v>
+      </c>
+      <c r="G80" t="n">
+        <v>46.366</v>
+      </c>
+      <c r="H80" t="n">
+        <v>46.366</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81" t="n">
         <v>2.0</v>
       </c>
       <c r="C81" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D81" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E81" t="n">
-        <v>1.8789090909090909</v>
+        <v>0.01512791338058638</v>
       </c>
       <c r="F81" t="n">
-        <v>17.844545454545454</v>
+        <v>-0.09327825363548674</v>
+      </c>
+      <c r="G81" t="n">
+        <v>32.32852777777778</v>
+      </c>
+      <c r="H81" t="n">
+        <v>32.32852777777778</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82" t="n">
         <v>2.0</v>
       </c>
       <c r="C82" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D82" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E82" t="n">
-        <v>1.872090909090909</v>
+        <v>-0.04248319773052473</v>
       </c>
       <c r="F82" t="n">
-        <v>19.65818181818182</v>
+        <v>-0.0923893647465978</v>
+      </c>
+      <c r="G82" t="n">
+        <v>36.079388888888886</v>
+      </c>
+      <c r="H82" t="n">
+        <v>36.079388888888886</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83" t="n">
         <v>2.0</v>
       </c>
       <c r="C83" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D83" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E83" t="n">
-        <v>1.8227272727272728</v>
+        <v>0.002294580047253044</v>
       </c>
       <c r="F83" t="n">
-        <v>18.907272727272726</v>
+        <v>-0.13025047585770885</v>
+      </c>
+      <c r="G83" t="n">
+        <v>32.32891666666667</v>
+      </c>
+      <c r="H83" t="n">
+        <v>32.32891666666667</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84" t="n">
         <v>2.0</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E84" t="n">
-        <v>1.9573636363636364</v>
+        <v>0.03612791338058637</v>
       </c>
       <c r="F84" t="n">
-        <v>17.252727272727274</v>
+        <v>-0.013750475857708869</v>
+      </c>
+      <c r="G84" t="n">
+        <v>33.02458333333333</v>
+      </c>
+      <c r="H84" t="n">
+        <v>33.02458333333333</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85" t="n">
         <v>2.0</v>
       </c>
       <c r="C85" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D85" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E85" t="n">
-        <v>2.0324545454545455</v>
+        <v>-0.016372086619413622</v>
       </c>
       <c r="F85" t="n">
-        <v>18.901818181818182</v>
+        <v>0.06599952414229111</v>
+      </c>
+      <c r="G85" t="n">
+        <v>38.76011111111111</v>
+      </c>
+      <c r="H85" t="n">
+        <v>38.76011111111111</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86" t="n">
         <v>2.0</v>
       </c>
       <c r="C86" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D86" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E86" t="n">
-        <v>1.992909090909091</v>
+        <v>-0.014288753286080286</v>
       </c>
       <c r="F86" t="n">
-        <v>20.61</v>
+        <v>0.0188050796978468</v>
+      </c>
+      <c r="G86" t="n">
+        <v>40.68702777777778</v>
+      </c>
+      <c r="H86" t="n">
+        <v>40.68702777777778</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87" t="n">
         <v>2.0</v>
       </c>
       <c r="C87" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D87" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E87" t="n">
-        <v>1.7818181818181817</v>
+        <v>-0.009788753286080287</v>
       </c>
       <c r="F87" t="n">
-        <v>19.963636363636365</v>
+        <v>-0.1725560314132645</v>
+      </c>
+      <c r="G87" t="n">
+        <v>35.691361111111114</v>
+      </c>
+      <c r="H87" t="n">
+        <v>35.691361111111114</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88" t="n">
         <v>2.0</v>
       </c>
       <c r="C88" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D88" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E88" t="n">
-        <v>1.795</v>
+        <v>0.020516802269475266</v>
       </c>
       <c r="F88" t="n">
-        <v>20.674545454545456</v>
+        <v>-0.18188936474659778</v>
+      </c>
+      <c r="G88" t="n">
+        <v>35.261250000000004</v>
+      </c>
+      <c r="H88" t="n">
+        <v>35.261250000000004</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89" t="n">
         <v>2.0</v>
       </c>
       <c r="C89" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D89" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E89" t="n">
-        <v>1.8876363636363636</v>
+        <v>-0.014872086619413619</v>
       </c>
       <c r="F89" t="n">
-        <v>20.804545454545455</v>
+        <v>-0.07705603141326438</v>
+      </c>
+      <c r="G89" t="n">
+        <v>39.16163888888889</v>
+      </c>
+      <c r="H89" t="n">
+        <v>39.16163888888889</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90" t="n">
         <v>2.0</v>
       </c>
       <c r="C90" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D90" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E90" t="n">
-        <v>1.883909090909091</v>
+        <v>-0.015816531063858066</v>
       </c>
       <c r="F90" t="n">
-        <v>23.81</v>
+        <v>-0.08486158696882</v>
+      </c>
+      <c r="G90" t="n">
+        <v>44.728611111111114</v>
+      </c>
+      <c r="H90" t="n">
+        <v>44.728611111111114</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91" t="n">
         <v>2.0</v>
       </c>
       <c r="C91" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D91" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E91" t="n">
-        <v>2.2094545454545456</v>
+        <v>0.007961246713919715</v>
       </c>
       <c r="F91" t="n">
-        <v>22.99818181818182</v>
+        <v>0.23188841303118002</v>
+      </c>
+      <c r="G91" t="n">
+        <v>50.60336111111111</v>
+      </c>
+      <c r="H91" t="n">
+        <v>50.60336111111111</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92" t="n">
         <v>2.0</v>
       </c>
       <c r="C92" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D92" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E92" t="n">
-        <v>1.9971818181818182</v>
+        <v>0.002850135602808603</v>
       </c>
       <c r="F92" t="n">
-        <v>16.650909090909092</v>
+        <v>0.012471746364513278</v>
+      </c>
+      <c r="G92" t="n">
+        <v>33.22647222222222</v>
+      </c>
+      <c r="H92" t="n">
+        <v>33.22647222222222</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93" t="n">
         <v>2.0</v>
       </c>
       <c r="C93" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D93" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E93" t="n">
-        <v>1.9774</v>
+        <v>0.004516802269475271</v>
       </c>
       <c r="F93" t="n">
-        <v>18.427</v>
+        <v>-0.027444920302153324</v>
+      </c>
+      <c r="G93" t="n">
+        <v>35.77441666666667</v>
+      </c>
+      <c r="H93" t="n">
+        <v>35.77441666666667</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94" t="n">
         <v>2.0</v>
       </c>
       <c r="C94" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D94" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E94" t="n">
-        <v>2.0362727272727272</v>
+        <v>0.030127913380586378</v>
       </c>
       <c r="F94" t="n">
-        <v>16.134545454545453</v>
+        <v>0.07522174636451336</v>
+      </c>
+      <c r="G94" t="n">
+        <v>32.45930555555556</v>
+      </c>
+      <c r="H94" t="n">
+        <v>32.45930555555556</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95" t="n">
         <v>2.0</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D95" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E95" t="n">
-        <v>2.0553636363636363</v>
+        <v>0.006294580047253047</v>
       </c>
       <c r="F95" t="n">
-        <v>12.566363636363636</v>
+        <v>0.09438841303118</v>
+      </c>
+      <c r="G95" t="n">
+        <v>24.665972222222223</v>
+      </c>
+      <c r="H95" t="n">
+        <v>24.665972222222223</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96" t="n">
         <v>2.0</v>
       </c>
       <c r="C96" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D96" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E96" t="n">
-        <v>2.0844545454545456</v>
+        <v>0.007655691158364161</v>
       </c>
       <c r="F96" t="n">
-        <v>15.621818181818183</v>
+        <v>0.10333285747562448</v>
+      </c>
+      <c r="G96" t="n">
+        <v>31.88588888888889</v>
+      </c>
+      <c r="H96" t="n">
+        <v>31.88588888888889</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97" t="n">
         <v>2.0</v>
       </c>
       <c r="C97" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D97" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E97" t="n">
-        <v>2.015090909090909</v>
+        <v>0.03315569115836416</v>
       </c>
       <c r="F97" t="n">
-        <v>13.058181818181819</v>
+        <v>0.04147174636451334</v>
+      </c>
+      <c r="G97" t="n">
+        <v>27.10711111111111</v>
+      </c>
+      <c r="H97" t="n">
+        <v>27.10711111111111</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98" t="n">
         <v>2.0</v>
       </c>
       <c r="C98" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D98" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E98" t="n">
-        <v>1.9016363636363636</v>
+        <v>0.011127913380586376</v>
       </c>
       <c r="F98" t="n">
-        <v>16.21181818181818</v>
+        <v>-0.05627825363548674</v>
+      </c>
+      <c r="G98" t="n">
+        <v>29.523305555555556</v>
+      </c>
+      <c r="H98" t="n">
+        <v>29.523305555555556</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99" t="n">
         <v>2.0</v>
       </c>
       <c r="C99" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D99" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E99" t="n">
-        <v>1.9494545454545456</v>
+        <v>0.007655691158364157</v>
       </c>
       <c r="F99" t="n">
-        <v>15.441818181818181</v>
+        <v>-3.6158696882004904E-4</v>
+      </c>
+      <c r="G99" t="n">
+        <v>31.501194444444444</v>
+      </c>
+      <c r="H99" t="n">
+        <v>31.501194444444444</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100" t="n">
         <v>2.0</v>
       </c>
       <c r="C100" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D100" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E100" t="n">
-        <v>1.9716363636363636</v>
+        <v>0.009600135602808596</v>
       </c>
       <c r="F100" t="n">
-        <v>16.62090909090909</v>
+        <v>0.024360635253402114</v>
+      </c>
+      <c r="G100" t="n">
+        <v>31.968</v>
+      </c>
+      <c r="H100" t="n">
+        <v>31.968</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101" t="n">
         <v>3.0</v>
       </c>
       <c r="C101" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D101" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E101" t="n">
-        <v>1.9254545454545455</v>
+        <v>0.011100135602808597</v>
       </c>
       <c r="F101" t="n">
-        <v>17.081818181818182</v>
+        <v>-0.034194920302153355</v>
+      </c>
+      <c r="G101" t="n">
+        <v>32.54347222222222</v>
+      </c>
+      <c r="H101" t="n">
+        <v>32.54347222222222</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102" t="n">
         <v>3.0</v>
       </c>
       <c r="C102" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D102" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E102" t="n">
-        <v>1.9820909090909091</v>
+        <v>0.022600135602808602</v>
       </c>
       <c r="F102" t="n">
-        <v>18.28</v>
+        <v>0.026555079697846578</v>
+      </c>
+      <c r="G102" t="n">
+        <v>37.28219444444444</v>
+      </c>
+      <c r="H102" t="n">
+        <v>37.28219444444444</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103" t="n">
         <v>3.0</v>
       </c>
       <c r="C103" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D103" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E103" t="n">
-        <v>2.1013636363636365</v>
+        <v>0.031211246713919713</v>
       </c>
       <c r="F103" t="n">
-        <v>17.516363636363636</v>
+        <v>0.1326384130311801</v>
+      </c>
+      <c r="G103" t="n">
+        <v>36.827444444444446</v>
+      </c>
+      <c r="H103" t="n">
+        <v>36.827444444444446</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104" t="n">
         <v>3.0</v>
       </c>
       <c r="C104" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D104" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E104" t="n">
-        <v>1.8211</v>
+        <v>-0.017788753286080292</v>
       </c>
       <c r="F104" t="n">
-        <v>18.411</v>
+        <v>-0.14261158696882004</v>
+      </c>
+      <c r="G104" t="n">
+        <v>33.86822222222222</v>
+      </c>
+      <c r="H104" t="n">
+        <v>33.86822222222222</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B105" t="n">
         <v>3.0</v>
       </c>
       <c r="C105" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D105" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E105" t="n">
-        <v>1.9841250000000001</v>
+        <v>-0.017538753286080285</v>
       </c>
       <c r="F105" t="n">
-        <v>16.50875</v>
+        <v>0.02136063525340215</v>
+      </c>
+      <c r="G105" t="n">
+        <v>31.49522222222222</v>
+      </c>
+      <c r="H105" t="n">
+        <v>31.49522222222222</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B106" t="n">
         <v>3.0</v>
       </c>
       <c r="C106" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D106" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E106" t="n">
-        <v>1.8755454545454546</v>
+        <v>-0.018649864397191396</v>
       </c>
       <c r="F106" t="n">
-        <v>21.130909090909093</v>
+        <v>-0.08575047585770885</v>
+      </c>
+      <c r="G106" t="n">
+        <v>37.883472222222224</v>
+      </c>
+      <c r="H106" t="n">
+        <v>37.883472222222224</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B107" t="n">
         <v>3.0</v>
       </c>
       <c r="C107" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D107" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E107" t="n">
-        <v>1.8841818181818182</v>
+        <v>-0.014705419952746948</v>
       </c>
       <c r="F107" t="n">
-        <v>20.291818181818183</v>
+        <v>-0.07316714252437562</v>
+      </c>
+      <c r="G107" t="n">
+        <v>38.94661111111111</v>
+      </c>
+      <c r="H107" t="n">
+        <v>38.94661111111111</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B108" t="n">
         <v>3.0</v>
       </c>
       <c r="C108" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D108" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E108" t="n">
-        <v>2.148909090909091</v>
+        <v>0.00457235782503083</v>
       </c>
       <c r="F108" t="n">
-        <v>15.415454545454544</v>
+        <v>0.19419396858673563</v>
+      </c>
+      <c r="G108" t="n">
+        <v>33.65416666666667</v>
+      </c>
+      <c r="H108" t="n">
+        <v>33.65416666666667</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B109" t="n">
         <v>3.0</v>
       </c>
       <c r="C109" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D109" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E109" t="n">
-        <v>1.9323636363636363</v>
+        <v>0.056405691158364156</v>
       </c>
       <c r="F109" t="n">
-        <v>18.48</v>
+        <v>-0.03086158696882002</v>
+      </c>
+      <c r="G109" t="n">
+        <v>35.50683333333333</v>
+      </c>
+      <c r="H109" t="n">
+        <v>35.50683333333333</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B110" t="n">
         <v>3.0</v>
       </c>
       <c r="C110" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D110" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E110" t="n">
-        <v>1.944625</v>
+        <v>0.0022390244916974896</v>
       </c>
       <c r="F110" t="n">
-        <v>22.745</v>
+        <v>0.01469396858673555</v>
+      </c>
+      <c r="G110" t="n">
+        <v>41.999944444444445</v>
+      </c>
+      <c r="H110" t="n">
+        <v>41.999944444444445</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B111" t="n">
         <v>3.0</v>
       </c>
       <c r="C111" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D111" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E111" t="n">
-        <v>1.809909090909091</v>
+        <v>-0.03134430884163584</v>
       </c>
       <c r="F111" t="n">
-        <v>21.484545454545454</v>
+        <v>-0.15622269807993114</v>
+      </c>
+      <c r="G111" t="n">
+        <v>38.39727777777778</v>
+      </c>
+      <c r="H111" t="n">
+        <v>38.39727777777778</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B112" t="n">
         <v>3.0</v>
       </c>
       <c r="C112" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D112" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E112" t="n">
-        <v>2.1084545454545456</v>
+        <v>0.03507235782503083</v>
       </c>
       <c r="F112" t="n">
-        <v>17.69090909090909</v>
+        <v>0.1332773019200689</v>
+      </c>
+      <c r="G112" t="n">
+        <v>37.535805555555555</v>
+      </c>
+      <c r="H112" t="n">
+        <v>37.535805555555555</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B113" t="n">
         <v>3.0</v>
       </c>
       <c r="C113" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D113" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E113" t="n">
-        <v>1.979818181818182</v>
+        <v>0.0031556911583641525</v>
       </c>
       <c r="F113" t="n">
-        <v>15.807272727272727</v>
+        <v>0.025666190808957785</v>
+      </c>
+      <c r="G113" t="n">
+        <v>32.51616666666666</v>
+      </c>
+      <c r="H113" t="n">
+        <v>32.51616666666666</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B114" t="n">
         <v>3.0</v>
       </c>
       <c r="C114" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D114" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E114" t="n">
-        <v>1.9628181818181818</v>
+        <v>0.012433468936141931</v>
       </c>
       <c r="F114" t="n">
-        <v>17.905454545454546</v>
+        <v>-0.0019171425243755813</v>
+      </c>
+      <c r="G114" t="n">
+        <v>34.06963888888889</v>
+      </c>
+      <c r="H114" t="n">
+        <v>34.06963888888889</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B115" t="n">
         <v>3.0</v>
       </c>
       <c r="C115" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D115" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E115" t="n">
-        <v>1.9031818181818183</v>
+        <v>-0.01101097550830251</v>
       </c>
       <c r="F115" t="n">
-        <v>21.72</v>
+        <v>-0.057556031413264375</v>
+      </c>
+      <c r="G115" t="n">
+        <v>39.27225</v>
+      </c>
+      <c r="H115" t="n">
+        <v>39.27225</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B116" t="n">
         <v>3.0</v>
       </c>
       <c r="C116" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D116" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E116" t="n">
-        <v>1.9223636363636365</v>
+        <v>0.029016802269475266</v>
       </c>
       <c r="F116" t="n">
-        <v>15.421818181818182</v>
+        <v>-0.032778253635486664</v>
+      </c>
+      <c r="G116" t="n">
+        <v>27.839333333333332</v>
+      </c>
+      <c r="H116" t="n">
+        <v>27.839333333333332</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B117" t="n">
         <v>3.0</v>
       </c>
       <c r="C117" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D117" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E117" t="n">
-        <v>2.014</v>
+        <v>-0.0014554199527469596</v>
       </c>
       <c r="F117" t="n">
-        <v>23.828181818181818</v>
+        <v>0.047388413031180056</v>
+      </c>
+      <c r="G117" t="n">
+        <v>46.703916666666665</v>
+      </c>
+      <c r="H117" t="n">
+        <v>46.703916666666665</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B118" t="n">
         <v>3.0</v>
       </c>
       <c r="C118" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D118" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E118" t="n">
-        <v>1.6457272727272727</v>
+        <v>-0.02776097550830251</v>
       </c>
       <c r="F118" t="n">
-        <v>22.28818181818182</v>
+        <v>-0.3169449203021533</v>
+      </c>
+      <c r="G118" t="n">
+        <v>35.56802777777778</v>
+      </c>
+      <c r="H118" t="n">
+        <v>35.56802777777778</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B119" t="n">
         <v>3.0</v>
       </c>
       <c r="C119" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D119" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E119" t="n">
-        <v>1.934909090909091</v>
+        <v>-0.010344308841635846</v>
       </c>
       <c r="F119" t="n">
-        <v>19.57181818181818</v>
+        <v>-0.03575047585770882</v>
+      </c>
+      <c r="G119" t="n">
+        <v>37.28477777777778</v>
+      </c>
+      <c r="H119" t="n">
+        <v>37.28477777777778</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B120" t="n">
         <v>3.0</v>
       </c>
       <c r="C120" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D120" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E120" t="n">
-        <v>2.069</v>
+        <v>-0.015066531063858066</v>
       </c>
       <c r="F120" t="n">
-        <v>21.393</v>
+        <v>0.09722174636451338</v>
+      </c>
+      <c r="G120" t="n">
+        <v>42.641</v>
+      </c>
+      <c r="H120" t="n">
+        <v>42.641</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B121" t="n">
         <v>3.0</v>
       </c>
       <c r="C121" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D121" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E121" t="n">
-        <v>2.0783636363636364</v>
+        <v>0.003044580047253049</v>
       </c>
       <c r="F121" t="n">
-        <v>18.279090909090908</v>
+        <v>0.1140273019200689</v>
+      </c>
+      <c r="G121" t="n">
+        <v>36.97269444444444</v>
+      </c>
+      <c r="H121" t="n">
+        <v>36.97269444444444</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B122" t="n">
         <v>3.0</v>
       </c>
       <c r="C122" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D122" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E122" t="n">
-        <v>1.8794</v>
+        <v>-0.005677642174969175</v>
       </c>
       <c r="F122" t="n">
-        <v>17.346</v>
+        <v>-0.07105603141326451</v>
+      </c>
+      <c r="G122" t="n">
+        <v>29.601166666666664</v>
+      </c>
+      <c r="H122" t="n">
+        <v>29.601166666666664</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B123" t="n">
         <v>3.0</v>
       </c>
       <c r="C123" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E123" t="n">
-        <v>2.1180909090909092</v>
+        <v>-0.010677642174969179</v>
       </c>
       <c r="F123" t="n">
-        <v>19.135454545454547</v>
+        <v>0.14113841303118</v>
+      </c>
+      <c r="G123" t="n">
+        <v>40.162305555555555</v>
+      </c>
+      <c r="H123" t="n">
+        <v>40.162305555555555</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B124" t="n">
         <v>3.0</v>
       </c>
       <c r="C124" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D124" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E124" t="n">
-        <v>1.803090909090909</v>
+        <v>-0.004205419952746948</v>
       </c>
       <c r="F124" t="n">
-        <v>15.317272727272728</v>
+        <v>-0.15555603141326446</v>
+      </c>
+      <c r="G124" t="n">
+        <v>28.339805555555557</v>
+      </c>
+      <c r="H124" t="n">
+        <v>28.339805555555557</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B125" t="n">
         <v>3.0</v>
       </c>
       <c r="C125" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D125" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E125" t="n">
-        <v>1.8564545454545454</v>
+        <v>-0.03198319773052473</v>
       </c>
       <c r="F125" t="n">
-        <v>18.572727272727274</v>
+        <v>-0.09819492030215327</v>
+      </c>
+      <c r="G125" t="n">
+        <v>34.87880555555556</v>
+      </c>
+      <c r="H125" t="n">
+        <v>34.87880555555556</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B126" t="n">
         <v>3.0</v>
       </c>
       <c r="C126" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D126" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E126" t="n">
-        <v>2.005</v>
+        <v>0.024961246713919718</v>
       </c>
       <c r="F126" t="n">
-        <v>18.16090909090909</v>
+        <v>0.030721746364513303</v>
+      </c>
+      <c r="G126" t="n">
+        <v>35.68727777777778</v>
+      </c>
+      <c r="H126" t="n">
+        <v>35.68727777777778</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B127" t="n">
         <v>3.0</v>
       </c>
       <c r="C127" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D127" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E127" t="n">
-        <v>2.086909090909091</v>
+        <v>0.02132235782503082</v>
       </c>
       <c r="F127" t="n">
-        <v>17.762727272727272</v>
+        <v>0.11488841303117996</v>
+      </c>
+      <c r="G127" t="n">
+        <v>36.581888888888884</v>
+      </c>
+      <c r="H127" t="n">
+        <v>36.581888888888884</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B128" t="n">
         <v>3.0</v>
       </c>
       <c r="C128" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D128" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E128" t="n">
-        <v>1.8803636363636362</v>
+        <v>0.012405691158364152</v>
       </c>
       <c r="F128" t="n">
-        <v>18.618181818181817</v>
+        <v>-0.07241714252437559</v>
+      </c>
+      <c r="G128" t="n">
+        <v>34.806000000000004</v>
+      </c>
+      <c r="H128" t="n">
+        <v>34.806000000000004</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B129" t="n">
         <v>3.0</v>
       </c>
       <c r="C129" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D129" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E129" t="n">
-        <v>1.9336363636363636</v>
+        <v>-0.020149864397191405</v>
       </c>
       <c r="F129" t="n">
-        <v>17.535454545454545</v>
+        <v>-0.024667142524375556</v>
+      </c>
+      <c r="G129" t="n">
+        <v>33.73302777777778</v>
+      </c>
+      <c r="H129" t="n">
+        <v>33.73302777777778</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B130" t="n">
         <v>3.0</v>
       </c>
       <c r="C130" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D130" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E130" t="n">
-        <v>2.073</v>
+        <v>-0.007733197730524731</v>
       </c>
       <c r="F130" t="n">
-        <v>20.214545454545455</v>
+        <v>0.11274952414229104</v>
+      </c>
+      <c r="G130" t="n">
+        <v>40.48063888888889</v>
+      </c>
+      <c r="H130" t="n">
+        <v>40.48063888888889</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B131" t="n">
         <v>3.0</v>
       </c>
       <c r="C131" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D131" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E131" t="n">
-        <v>1.903181818181818</v>
+        <v>0.012877913380586378</v>
       </c>
       <c r="F131" t="n">
-        <v>18.954545454545453</v>
+        <v>-0.062278253635486745</v>
+      </c>
+      <c r="G131" t="n">
+        <v>35.06791666666667</v>
+      </c>
+      <c r="H131" t="n">
+        <v>35.06791666666667</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B132" t="n">
         <v>3.0</v>
       </c>
       <c r="C132" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D132" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E132" t="n">
-        <v>1.9586</v>
+        <v>-0.006927642174969176</v>
       </c>
       <c r="F132" t="n">
-        <v>19.914</v>
+        <v>0.00366619080895784</v>
+      </c>
+      <c r="G132" t="n">
+        <v>39.01852777777778</v>
+      </c>
+      <c r="H132" t="n">
+        <v>39.01852777777778</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B133" t="n">
         <v>3.0</v>
       </c>
       <c r="C133" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D133" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E133" t="n">
-        <v>1.956909090909091</v>
+        <v>0.008489024491697491</v>
       </c>
       <c r="F133" t="n">
-        <v>18.77090909090909</v>
+        <v>-0.015417142524375501</v>
+      </c>
+      <c r="G133" t="n">
+        <v>36.24275</v>
+      </c>
+      <c r="H133" t="n">
+        <v>36.24275</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B134" t="n">
         <v>3.0</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E134" t="n">
-        <v>2.1764545454545456</v>
+        <v>0.0161001356028086</v>
       </c>
       <c r="F134" t="n">
-        <v>13.741818181818182</v>
+        <v>0.20391619080895795</v>
+      </c>
+      <c r="G134" t="n">
+        <v>29.249</v>
+      </c>
+      <c r="H134" t="n">
+        <v>29.249</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B135" t="n">
         <v>3.0</v>
       </c>
       <c r="C135" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D135" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E135" t="n">
-        <v>1.9191818181818183</v>
+        <v>0.005655691158364155</v>
       </c>
       <c r="F135" t="n">
-        <v>17.004545454545454</v>
+        <v>-0.044444920302153225</v>
+      </c>
+      <c r="G135" t="n">
+        <v>32.78691666666667</v>
+      </c>
+      <c r="H135" t="n">
+        <v>32.78691666666667</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B136" t="n">
         <v>3.0</v>
       </c>
       <c r="C136" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D136" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E136" t="n">
-        <v>1.8443636363636364</v>
+        <v>-0.024372086619413622</v>
       </c>
       <c r="F136" t="n">
-        <v>19.58818181818182</v>
+        <v>-0.1289171425243755</v>
+      </c>
+      <c r="G136" t="n">
+        <v>35.83627777777778</v>
+      </c>
+      <c r="H136" t="n">
+        <v>35.83627777777778</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B137" t="n">
         <v>3.0</v>
       </c>
       <c r="C137" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D137" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E137" t="n">
-        <v>2.1695454545454544</v>
+        <v>-0.007288753286080289</v>
       </c>
       <c r="F137" t="n">
-        <v>14.864545454545455</v>
+        <v>0.17486063525340226</v>
+      </c>
+      <c r="G137" t="n">
+        <v>31.873944444444444</v>
+      </c>
+      <c r="H137" t="n">
+        <v>31.873944444444444</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B138" t="n">
         <v>3.0</v>
       </c>
       <c r="C138" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D138" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E138" t="n">
-        <v>2.076888888888889</v>
+        <v>0.008100135602808598</v>
       </c>
       <c r="F138" t="n">
-        <v>17.515555555555554</v>
+        <v>0.09002730192006887</v>
+      </c>
+      <c r="G138" t="n">
+        <v>33.16272222222222</v>
+      </c>
+      <c r="H138" t="n">
+        <v>33.16272222222222</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B139" t="n">
         <v>3.0</v>
       </c>
       <c r="C139" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D139" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E139" t="n">
-        <v>1.7892727272727273</v>
+        <v>-0.0076776421749691764</v>
       </c>
       <c r="F139" t="n">
-        <v>21.55090909090909</v>
+        <v>-0.1676949203021533</v>
+      </c>
+      <c r="G139" t="n">
+        <v>37.83094444444444</v>
+      </c>
+      <c r="H139" t="n">
+        <v>37.83094444444444</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B140" t="n">
         <v>3.0</v>
       </c>
       <c r="C140" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D140" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E140" t="n">
-        <v>1.7215</v>
+        <v>-0.0012887532860802835</v>
       </c>
       <c r="F140" t="n">
-        <v>20.833</v>
+        <v>-0.21986158696882008</v>
+      </c>
+      <c r="G140" t="n">
+        <v>34.36280555555555</v>
+      </c>
+      <c r="H140" t="n">
+        <v>34.36280555555555</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B141" t="n">
         <v>3.0</v>
       </c>
       <c r="C141" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D141" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E141" t="n">
-        <v>1.8833636363636364</v>
+        <v>-0.01331653106385807</v>
       </c>
       <c r="F141" t="n">
-        <v>22.555454545454545</v>
+        <v>-0.08763936474659777</v>
+      </c>
+      <c r="G141" t="n">
+        <v>42.928222222222225</v>
+      </c>
+      <c r="H141" t="n">
+        <v>42.928222222222225</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B142" t="n">
         <v>3.0</v>
       </c>
       <c r="C142" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D142" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E142" t="n">
-        <v>1.8311818181818182</v>
+        <v>-0.0010387532860802833</v>
       </c>
       <c r="F142" t="n">
-        <v>23.790909090909093</v>
+        <v>-0.11625047585770891</v>
+      </c>
+      <c r="G142" t="n">
+        <v>39.906888888888886</v>
+      </c>
+      <c r="H142" t="n">
+        <v>39.906888888888886</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B143" t="n">
         <v>3.0</v>
       </c>
       <c r="C143" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D143" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E143" t="n">
-        <v>1.7125</v>
+        <v>4.223578250308289E-4</v>
       </c>
       <c r="F143" t="n">
-        <v>24.8175</v>
+        <v>-0.25330603141326447</v>
+      </c>
+      <c r="G143" t="n">
+        <v>42.569183333333335</v>
+      </c>
+      <c r="H143" t="n">
+        <v>42.569183333333335</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B144" t="n">
         <v>3.0</v>
       </c>
       <c r="C144" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D144" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E144" t="n">
-        <v>2.0436363636363635</v>
+        <v>0.016211246713919714</v>
       </c>
       <c r="F144" t="n">
-        <v>18.034545454545455</v>
+        <v>0.08377730192006894</v>
+      </c>
+      <c r="G144" t="n">
+        <v>35.374694444444444</v>
+      </c>
+      <c r="H144" t="n">
+        <v>35.374694444444444</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B145" t="n">
         <v>3.0</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D145" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E145" t="n">
-        <v>2.147181818181818</v>
+        <v>0.020016802269475276</v>
       </c>
       <c r="F145" t="n">
-        <v>17.958181818181817</v>
+        <v>0.17774952414229114</v>
+      </c>
+      <c r="G145" t="n">
+        <v>39.197</v>
+      </c>
+      <c r="H145" t="n">
+        <v>39.197</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B146" t="n">
         <v>3.0</v>
       </c>
       <c r="C146" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D146" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E146" t="n">
-        <v>1.937</v>
+        <v>0.003766802269475266</v>
       </c>
       <c r="F146" t="n">
-        <v>17.758181818181818</v>
+        <v>-0.023056031413264472</v>
+      </c>
+      <c r="G146" t="n">
+        <v>32.500527777777776</v>
+      </c>
+      <c r="H146" t="n">
+        <v>32.500527777777776</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B147" t="n">
         <v>3.0</v>
       </c>
       <c r="C147" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D147" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E147" t="n">
-        <v>1.989090909090909</v>
+        <v>0.010711246713919709</v>
       </c>
       <c r="F147" t="n">
-        <v>16.221818181818183</v>
+        <v>0.01863841303117993</v>
+      </c>
+      <c r="G147" t="n">
+        <v>32.92516666666667</v>
+      </c>
+      <c r="H147" t="n">
+        <v>32.92516666666667</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B148" t="n">
         <v>3.0</v>
       </c>
       <c r="C148" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D148" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E148" t="n">
-        <v>2.1815454545454545</v>
+        <v>-0.0059276421749691775</v>
       </c>
       <c r="F148" t="n">
-        <v>17.71</v>
+        <v>0.2278328574756244</v>
+      </c>
+      <c r="G148" t="n">
+        <v>38.13961111111111</v>
+      </c>
+      <c r="H148" t="n">
+        <v>38.13961111111111</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B149" t="n">
         <v>3.0</v>
       </c>
       <c r="C149" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D149" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E149" t="n">
-        <v>2.168090909090909</v>
+        <v>0.02540569115836416</v>
       </c>
       <c r="F149" t="n">
-        <v>15.588181818181818</v>
+        <v>0.20627730192006885</v>
+      </c>
+      <c r="G149" t="n">
+        <v>32.230361111111115</v>
+      </c>
+      <c r="H149" t="n">
+        <v>32.230361111111115</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B150" t="n">
         <v>3.0</v>
       </c>
       <c r="C150" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D150" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E150" t="n">
-        <v>1.9713333333333334</v>
+        <v>0.0191001356028086</v>
       </c>
       <c r="F150" t="n">
-        <v>16.405</v>
+        <v>0.008805079697846718</v>
+      </c>
+      <c r="G150" t="n">
+        <v>31.631083333333336</v>
+      </c>
+      <c r="H150" t="n">
+        <v>31.631083333333336</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B151" t="n">
         <v>4.0</v>
       </c>
       <c r="C151" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D151" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E151" t="n">
-        <v>1.8563636363636364</v>
+        <v>-0.028649864397191395</v>
       </c>
       <c r="F151" t="n">
-        <v>20.613636363636363</v>
+        <v>-0.10191714252437552</v>
+      </c>
+      <c r="G151" t="n">
+        <v>35.35305555555556</v>
+      </c>
+      <c r="H151" t="n">
+        <v>35.35305555555556</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B152" t="n">
         <v>4.0</v>
       </c>
       <c r="C152" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D152" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E152" t="n">
-        <v>1.833090909090909</v>
+        <v>-2.0541995274695837E-4</v>
       </c>
       <c r="F152" t="n">
-        <v>14.51</v>
+        <v>-0.12663936474659768</v>
+      </c>
+      <c r="G152" t="n">
+        <v>25.877305555555555</v>
+      </c>
+      <c r="H152" t="n">
+        <v>25.877305555555555</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B153" t="n">
         <v>4.0</v>
       </c>
       <c r="C153" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D153" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E153" t="n">
-        <v>1.8852727272727272</v>
+        <v>-0.011844308841635847</v>
       </c>
       <c r="F153" t="n">
-        <v>21.287272727272725</v>
+        <v>-0.0689171425243756</v>
+      </c>
+      <c r="G153" t="n">
+        <v>38.776583333333335</v>
+      </c>
+      <c r="H153" t="n">
+        <v>38.776583333333335</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B154" t="n">
         <v>4.0</v>
       </c>
       <c r="C154" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D154" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E154" t="n">
-        <v>1.8003636363636364</v>
+        <v>-0.006955419952746955</v>
       </c>
       <c r="F154" t="n">
-        <v>15.88090909090909</v>
+        <v>-0.16386158696881994</v>
+      </c>
+      <c r="G154" t="n">
+        <v>28.139083333333332</v>
+      </c>
+      <c r="H154" t="n">
+        <v>28.139083333333332</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B155" t="n">
         <v>4.0</v>
       </c>
       <c r="C155" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D155" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E155" t="n">
-        <v>1.695</v>
+        <v>-0.011594308841635842</v>
       </c>
       <c r="F155" t="n">
-        <v>26.105</v>
+        <v>-0.2681393647465978</v>
+      </c>
+      <c r="G155" t="n">
+        <v>42.15438888888889</v>
+      </c>
+      <c r="H155" t="n">
+        <v>42.15438888888889</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B156" t="n">
         <v>4.0</v>
       </c>
       <c r="C156" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D156" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E156" t="n">
-        <v>1.9625454545454546</v>
+        <v>0.010183468936141938</v>
       </c>
       <c r="F156" t="n">
-        <v>15.575454545454544</v>
+        <v>0.0014717463645133784</v>
+      </c>
+      <c r="G156" t="n">
+        <v>30.715416666666666</v>
+      </c>
+      <c r="H156" t="n">
+        <v>30.715416666666666</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B157" t="n">
         <v>4.0</v>
       </c>
       <c r="C157" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D157" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E157" t="n">
-        <v>2.041272727272727</v>
+        <v>-0.004260975508302511</v>
       </c>
       <c r="F157" t="n">
-        <v>19.065454545454546</v>
+        <v>0.08452730192006896</v>
+      </c>
+      <c r="G157" t="n">
+        <v>40.4535</v>
+      </c>
+      <c r="H157" t="n">
+        <v>40.4535</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B158" t="n">
         <v>4.0</v>
       </c>
       <c r="C158" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D158" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E158" t="n">
-        <v>2.0182</v>
+        <v>-0.019538753286080287</v>
       </c>
       <c r="F158" t="n">
-        <v>12.576</v>
+        <v>0.06158285747562461</v>
+      </c>
+      <c r="G158" t="n">
+        <v>24.39338888888889</v>
+      </c>
+      <c r="H158" t="n">
+        <v>24.39338888888889</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B159" t="n">
         <v>4.0</v>
       </c>
       <c r="C159" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D159" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E159" t="n">
-        <v>1.8503636363636364</v>
+        <v>4.3346893614193877E-4</v>
       </c>
       <c r="F159" t="n">
-        <v>19.756363636363638</v>
+        <v>-0.09483380919104219</v>
+      </c>
+      <c r="G159" t="n">
+        <v>35.02872222222222</v>
+      </c>
+      <c r="H159" t="n">
+        <v>35.02872222222222</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B160" t="n">
         <v>4.0</v>
       </c>
       <c r="C160" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D160" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E160" t="n">
-        <v>1.7615</v>
+        <v>0.02860013560280861</v>
       </c>
       <c r="F160" t="n">
-        <v>23.109</v>
+        <v>-0.19816714252437553</v>
+      </c>
+      <c r="G160" t="n">
+        <v>38.99644444444444</v>
+      </c>
+      <c r="H160" t="n">
+        <v>38.99644444444444</v>
       </c>
     </row>
   </sheetData>
